--- a/output/QUANTITAS_20077711000171.xlsx
+++ b/output/QUANTITAS_20077711000171.xlsx
@@ -1230,10 +1230,10 @@
         <v>44165</v>
       </c>
       <c r="B77">
-        <v>1.175877727</v>
+        <v>1.173072432</v>
       </c>
       <c r="C77">
-        <v>-0.001401445235049037</v>
+        <v>-0.00268890890910034</v>
       </c>
     </row>
   </sheetData>

--- a/output/QUANTITAS_20077711000171.xlsx
+++ b/output/QUANTITAS_20077711000171.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>QUANTITAS FUNDO DE INVESTIMENTO MULTIMERCADO ARBITRAGEM LONGO PRAZO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,854 +383,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41882</v>
       </c>
       <c r="B2">
-        <v>0.005201792000000038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41912</v>
       </c>
       <c r="B3">
-        <v>0.03057908899999995</v>
-      </c>
-      <c r="C3">
         <v>0.02524597270117068</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41943</v>
       </c>
       <c r="B4">
-        <v>0.04882735100000013</v>
-      </c>
-      <c r="C4">
         <v>0.01770680406266245</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41973</v>
       </c>
       <c r="B5">
-        <v>0.05464123399999998</v>
-      </c>
-      <c r="C5">
         <v>0.005543222146577875</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42004</v>
       </c>
       <c r="B6">
-        <v>0.073566888</v>
-      </c>
-      <c r="C6">
         <v>0.01794511099117524</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42035</v>
       </c>
       <c r="B7">
-        <v>0.09926764200000004</v>
-      </c>
-      <c r="C7">
         <v>0.02393959266746681</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42063</v>
       </c>
       <c r="B8">
-        <v>0.110598671</v>
-      </c>
-      <c r="C8">
         <v>0.01030779818041805</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42094</v>
       </c>
       <c r="B9">
-        <v>0.1311076149999999</v>
-      </c>
-      <c r="C9">
         <v>0.01846656630836163</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42124</v>
       </c>
       <c r="B10">
-        <v>0.147379793</v>
-      </c>
-      <c r="C10">
         <v>0.01438605644963342</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42155</v>
       </c>
       <c r="B11">
-        <v>0.1603972629999999</v>
-      </c>
-      <c r="C11">
         <v>0.01134538892824999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42185</v>
       </c>
       <c r="B12">
-        <v>0.1779333089999999</v>
-      </c>
-      <c r="C12">
         <v>0.01511210562033183</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42216</v>
       </c>
       <c r="B13">
-        <v>0.184170062</v>
-      </c>
-      <c r="C13">
         <v>0.00529465713580568</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42247</v>
       </c>
       <c r="B14">
-        <v>0.2148534280000001</v>
-      </c>
-      <c r="C14">
         <v>0.02591128334065251</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42277</v>
       </c>
       <c r="B15">
-        <v>0.2124572650000001</v>
-      </c>
-      <c r="C15">
         <v>-0.001972388557148652</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42308</v>
       </c>
       <c r="B16">
-        <v>0.2440892239999999</v>
-      </c>
-      <c r="C16">
         <v>0.02608913312915795</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42338</v>
       </c>
       <c r="B17">
-        <v>0.259274821</v>
-      </c>
-      <c r="C17">
         <v>0.01220619607263806</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42369</v>
       </c>
       <c r="B18">
-        <v>0.253747202</v>
-      </c>
-      <c r="C18">
         <v>-0.004389525549006401</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42400</v>
       </c>
       <c r="B19">
-        <v>0.2915679920000001</v>
-      </c>
-      <c r="C19">
         <v>0.03016620092126043</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42429</v>
       </c>
       <c r="B20">
-        <v>0.3085343370000002</v>
-      </c>
-      <c r="C20">
         <v>0.01313623835918043</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42460</v>
       </c>
       <c r="B21">
-        <v>0.3362784460000001</v>
-      </c>
-      <c r="C21">
         <v>0.02120243100659258</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42490</v>
       </c>
       <c r="B22">
-        <v>0.3557527540000001</v>
-      </c>
-      <c r="C22">
         <v>0.01457354046104253</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42521</v>
       </c>
       <c r="B23">
-        <v>0.3767182489999998</v>
-      </c>
-      <c r="C23">
         <v>0.01546409914207691</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42551</v>
       </c>
       <c r="B24">
-        <v>0.4077241470000001</v>
-      </c>
-      <c r="C24">
         <v>0.02252160020579508</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42582</v>
       </c>
       <c r="B25">
-        <v>0.43137227</v>
-      </c>
-      <c r="C25">
         <v>0.01679883310263341</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42613</v>
       </c>
       <c r="B26">
-        <v>0.4595238670000001</v>
-      </c>
-      <c r="C26">
         <v>0.01966755790232</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42643</v>
       </c>
       <c r="B27">
-        <v>0.478025924</v>
-      </c>
-      <c r="C27">
         <v>0.01267677591188021</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42674</v>
       </c>
       <c r="B28">
-        <v>0.4879623770000001</v>
-      </c>
-      <c r="C28">
         <v>0.006722786683679427</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42704</v>
       </c>
       <c r="B29">
-        <v>0.533881657</v>
-      </c>
-      <c r="C29">
         <v>0.03086051146842927</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42735</v>
       </c>
       <c r="B30">
-        <v>0.538429754</v>
-      </c>
-      <c r="C30">
         <v>0.002965089894154671</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42766</v>
       </c>
       <c r="B31">
-        <v>0.5834496069999999</v>
-      </c>
-      <c r="C31">
         <v>0.02926350903117014</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42794</v>
       </c>
       <c r="B32">
-        <v>0.6012130260000002</v>
-      </c>
-      <c r="C32">
         <v>0.01121817765558997</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42825</v>
       </c>
       <c r="B33">
-        <v>0.633922825</v>
-      </c>
-      <c r="C33">
         <v>0.02042813696170853</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42855</v>
       </c>
       <c r="B34">
-        <v>0.6262137720000001</v>
-      </c>
-      <c r="C34">
         <v>-0.004718125533254569</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42886</v>
       </c>
       <c r="B35">
-        <v>0.6913149870000002</v>
-      </c>
-      <c r="C35">
         <v>0.04003238450006186</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42916</v>
       </c>
       <c r="B36">
-        <v>0.6917420440000002</v>
-      </c>
-      <c r="C36">
         <v>0.0002524999797686167</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42947</v>
       </c>
       <c r="B37">
-        <v>0.7024146010000001</v>
-      </c>
-      <c r="C37">
         <v>0.006308619589997067</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42978</v>
       </c>
       <c r="B38">
-        <v>0.7223116519999999</v>
-      </c>
-      <c r="C38">
         <v>0.01168754719814569</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43008</v>
       </c>
       <c r="B39">
-        <v>0.7393751169999998</v>
-      </c>
-      <c r="C39">
         <v>0.009907303930845046</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43039</v>
       </c>
       <c r="B40">
-        <v>0.7383227299999999</v>
-      </c>
-      <c r="C40">
         <v>-0.0006050374009115567</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43069</v>
       </c>
       <c r="B41">
-        <v>0.7806416460000001</v>
-      </c>
-      <c r="C41">
         <v>0.02434468310726179</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43100</v>
       </c>
       <c r="B42">
-        <v>0.765873273</v>
-      </c>
-      <c r="C42">
         <v>-0.008293849036483891</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43131</v>
       </c>
       <c r="B43">
-        <v>0.83116086</v>
-      </c>
-      <c r="C43">
         <v>0.03697184163679235</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43159</v>
       </c>
       <c r="B44">
-        <v>0.8131134660000001</v>
-      </c>
-      <c r="C44">
         <v>-0.009855711966233249</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43190</v>
       </c>
       <c r="B45">
-        <v>0.808313244</v>
-      </c>
-      <c r="C45">
         <v>-0.002647502260622492</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43220</v>
       </c>
       <c r="B46">
-        <v>0.789516299</v>
-      </c>
-      <c r="C46">
         <v>-0.0103947394415036</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43251</v>
       </c>
       <c r="B47">
-        <v>0.788505043</v>
-      </c>
-      <c r="C47">
         <v>-0.0005651001896798125</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43281</v>
       </c>
       <c r="B48">
-        <v>0.8433659679999999</v>
-      </c>
-      <c r="C48">
         <v>0.03067417965340336</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43312</v>
       </c>
       <c r="B49">
-        <v>0.8437326139999999</v>
-      </c>
-      <c r="C49">
         <v>0.0001989002761062508</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43343</v>
       </c>
       <c r="B50">
-        <v>0.8488488280000002</v>
-      </c>
-      <c r="C50">
         <v>0.002774921895480675</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43373</v>
       </c>
       <c r="B51">
-        <v>0.8589287390000002</v>
-      </c>
-      <c r="C51">
         <v>0.005451993071225791</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43404</v>
       </c>
       <c r="B52">
-        <v>0.8832289270000002</v>
-      </c>
-      <c r="C52">
         <v>0.01307214606465879</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43434</v>
       </c>
       <c r="B53">
-        <v>0.9010975819999998</v>
-      </c>
-      <c r="C53">
         <v>0.009488307419143416</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43465</v>
       </c>
       <c r="B54">
-        <v>0.9076876789999999</v>
-      </c>
-      <c r="C54">
         <v>0.003466469613341516</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43496</v>
       </c>
       <c r="B55">
-        <v>0.918528647</v>
-      </c>
-      <c r="C55">
         <v>0.005682779272172533</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43524</v>
       </c>
       <c r="B56">
-        <v>0.933220742</v>
-      </c>
-      <c r="C56">
         <v>0.007658001366293909</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43555</v>
       </c>
       <c r="B57">
-        <v>0.946054854</v>
-      </c>
-      <c r="C57">
         <v>0.006638720411577204</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43585</v>
       </c>
       <c r="B58">
-        <v>0.9527103210000001</v>
-      </c>
-      <c r="C58">
         <v>0.003419979136929374</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43616</v>
       </c>
       <c r="B59">
-        <v>0.97508675</v>
-      </c>
-      <c r="C59">
         <v>0.01145916460795915</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43646</v>
       </c>
       <c r="B60">
-        <v>0.978213011</v>
-      </c>
-      <c r="C60">
         <v>0.00158284743695436</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43677</v>
       </c>
       <c r="B61">
-        <v>0.9911687810000001</v>
-      </c>
-      <c r="C61">
         <v>0.006549228989981559</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43708</v>
       </c>
       <c r="B62">
-        <v>1.011440731</v>
-      </c>
-      <c r="C62">
         <v>0.01018093001127651</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43738</v>
       </c>
       <c r="B63">
-        <v>1.023449943</v>
-      </c>
-      <c r="C63">
         <v>0.00597045282762565</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43769</v>
       </c>
       <c r="B64">
-        <v>0.998036476</v>
-      </c>
-      <c r="C64">
         <v>-0.0125594740250019</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43799</v>
       </c>
       <c r="B65">
-        <v>1.046214951</v>
-      </c>
-      <c r="C65">
         <v>0.02411291063937515</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43830</v>
       </c>
       <c r="B66">
-        <v>1.041668497</v>
-      </c>
-      <c r="C66">
         <v>-0.002221884850258871</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43861</v>
       </c>
       <c r="B67">
-        <v>1.05708351</v>
-      </c>
-      <c r="C67">
         <v>0.007550203680299017</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43890</v>
       </c>
       <c r="B68">
-        <v>1.06964313</v>
-      </c>
-      <c r="C68">
         <v>0.006105546974123577</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43921</v>
       </c>
       <c r="B69">
-        <v>1.105387104</v>
-      </c>
-      <c r="C69">
         <v>0.01727059775759487</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43951</v>
       </c>
       <c r="B70">
-        <v>1.134410139</v>
-      </c>
-      <c r="C70">
         <v>0.01378513003374016</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43982</v>
       </c>
       <c r="B71">
-        <v>1.146708553</v>
-      </c>
-      <c r="C71">
         <v>0.005761973191226399</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44012</v>
       </c>
       <c r="B72">
-        <v>1.155762879</v>
-      </c>
-      <c r="C72">
         <v>0.004217771428425499</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>44043</v>
       </c>
       <c r="B73">
-        <v>1.145547314</v>
-      </c>
-      <c r="C73">
         <v>-0.004738723864073036</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>44074</v>
       </c>
       <c r="B74">
-        <v>1.143980224</v>
-      </c>
-      <c r="C74">
         <v>-0.0007303917232560631</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>44104</v>
       </c>
       <c r="B75">
-        <v>1.127610623</v>
-      </c>
-      <c r="C75">
         <v>-0.007635145518954167</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>44135</v>
       </c>
       <c r="B76">
-        <v>1.17893138</v>
-      </c>
-      <c r="C76">
         <v>0.02412131075357959</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>44165</v>
       </c>
       <c r="B77">
-        <v>1.173072432</v>
-      </c>
-      <c r="C77">
-        <v>-0.00268890890910034</v>
+        <v>0.002991862919519805</v>
       </c>
     </row>
   </sheetData>
